--- a/public/data/NhaThau.xlsx
+++ b/public/data/NhaThau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\FileImportMau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinhtruong\workspace\web-gdvn-hethongquanly\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA32293-D84B-47EB-B5C8-3BC49C279A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1841D5-4BD1-470E-9C0C-20E743312332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{BD94F33F-19D7-4DCF-AC94-8B77877F3AA6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>STT</t>
   </si>
@@ -48,22 +48,67 @@
     <t>Người đại diện</t>
   </si>
   <si>
-    <t>Thông tin thêm</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
     <t>Tỉnh thành</t>
   </si>
   <si>
-    <t>Lưu ý : Tên công ty, mã số thuế, tỉnh thành là bắt buộc nhập</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
     <t>NHÀ THẦU</t>
+  </si>
+  <si>
+    <t>Nhân viên phụ trách</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Loại nhà thầu</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Lưu ý : Tên công ty, tỉnh thành là bắt buộc nhập</t>
+  </si>
+  <si>
+    <t>NĐD Chức vụ</t>
+  </si>
+  <si>
+    <t>NĐD Số điện thoại</t>
+  </si>
+  <si>
+    <t>Công ty B</t>
+  </si>
+  <si>
+    <t>MT00002</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>Bình Phú, Càng Long, Trà Vinh</t>
+  </si>
+  <si>
+    <t>Cao Quốc Tuân</t>
+  </si>
+  <si>
+    <t>Tổng giám đốc</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Khánh</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Phần mềm</t>
   </si>
 </sst>
 </file>
@@ -484,28 +529,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA987291-4EE6-4FC6-B1B7-326C68B1DB13}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="53.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="26.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="5" customWidth="1"/>
-    <col min="7" max="7" width="68.140625" style="5" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="49" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="34" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="47.28515625" style="5" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="49" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -513,8 +565,14 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,24 +583,42 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -562,19 +638,69 @@
       <c r="G5" s="3">
         <v>6</v>
       </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6">
+        <v>988376367</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6">
+        <v>998387477</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
